--- a/test_請求管理/已完成/test_請求管理_滞納金一覧.xlsx
+++ b/test_請求管理/已完成/test_請求管理_滞納金一覧.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\elwj\git\AP\ap2\areaparking-test\test_請求管理\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="758" activeTab="4"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="825">
   <si>
     <t>SQL</t>
   </si>
@@ -2541,7 +2536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -3605,11 +3600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE192"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4070,9 +4065,7 @@
       <c r="B65" s="11"/>
     </row>
     <row r="66" spans="1:19" ht="14.25">
-      <c r="A66" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="A66" s="10"/>
       <c r="B66" s="11" t="s">
         <v>51</v>
       </c>
@@ -15415,7 +15408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15751,7 +15744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16470,7 +16463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16724,10 +16717,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I29" activeCellId="1" sqref="H52 I29"/>
     </sheetView>
   </sheetViews>

--- a/test_請求管理/已完成/test_請求管理_滞納金一覧.xlsx
+++ b/test_請求管理/已完成/test_請求管理_滞納金一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="758"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="758" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -3603,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15411,7 +15411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -16466,8 +16466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/test_請求管理/已完成/test_請求管理_滞納金一覧.xlsx
+++ b/test_請求管理/已完成/test_請求管理_滞納金一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="758" activeTab="3"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="758" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -16466,7 +16466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -16720,8 +16720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BY54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" activeCellId="1" sqref="H52 I29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16789,16 +16789,16 @@
       <c r="B5" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>810</v>
       </c>
     </row>
